--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040621.xlsx_with_dialog_acts.xlsx
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3223,12 +3223,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3375,12 +3375,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4443,12 +4443,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4823,12 +4823,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5363,12 +5363,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5553,12 +5553,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5705,12 +5705,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5743,12 +5743,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5933,12 +5933,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6509,12 +6509,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6547,12 +6547,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6661,12 +6661,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6737,12 +6737,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7003,12 +7003,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7881,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7919,12 +7919,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8071,12 +8071,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8185,12 +8185,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8223,12 +8223,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8489,12 +8489,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8831,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8869,12 +8869,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8907,12 +8907,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10515,12 +10515,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10553,12 +10553,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10747,12 +10747,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11515,12 +11515,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11553,12 +11553,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12085,12 +12085,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12123,12 +12123,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12199,12 +12199,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12579,12 +12579,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13147,12 +13147,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13831,12 +13831,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14249,12 +14249,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14325,12 +14325,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14363,12 +14363,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14439,12 +14439,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14667,12 +14667,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14785,12 +14785,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14899,12 +14899,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14975,12 +14975,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15169,12 +15169,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15207,12 +15207,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15397,12 +15397,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15473,12 +15473,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16161,12 +16161,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16431,12 +16431,12 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16469,12 +16469,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16545,12 +16545,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16659,12 +16659,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16773,12 +16773,12 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17115,12 +17115,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18445,12 +18445,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18483,12 +18483,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18563,12 +18563,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19057,12 +19057,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19095,12 +19095,12 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19133,12 +19133,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19247,12 +19247,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19551,12 +19551,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19707,12 +19707,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20087,12 +20087,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20201,12 +20201,12 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20581,12 +20581,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20771,12 +20771,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20997,12 +20997,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21225,12 +21225,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21263,12 +21263,12 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21301,12 +21301,12 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21955,12 +21955,12 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21993,12 +21993,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22339,12 +22339,12 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22377,12 +22377,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22529,12 +22529,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22755,12 +22755,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22831,12 +22831,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23139,12 +23139,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23177,12 +23177,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23295,12 +23295,12 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23409,12 +23409,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23447,12 +23447,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23751,12 +23751,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24207,12 +24207,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24511,12 +24511,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24549,12 +24549,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24777,12 +24777,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24853,12 +24853,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25005,12 +25005,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25841,12 +25841,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26343,12 +26343,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26647,12 +26647,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27483,12 +27483,12 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27825,12 +27825,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27977,12 +27977,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28433,12 +28433,12 @@
       <c r="H734" t="inlineStr"/>
       <c r="I734" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28623,12 +28623,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28813,12 +28813,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28927,12 +28927,12 @@
       <c r="H747" t="inlineStr"/>
       <c r="I747" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28965,12 +28965,12 @@
       <c r="H748" t="inlineStr"/>
       <c r="I748" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29307,12 +29307,12 @@
       <c r="H757" t="inlineStr"/>
       <c r="I757" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29957,12 +29957,12 @@
       <c r="H774" t="inlineStr"/>
       <c r="I774" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30109,12 +30109,12 @@
       <c r="H778" t="inlineStr"/>
       <c r="I778" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30185,12 +30185,12 @@
       <c r="H780" t="inlineStr"/>
       <c r="I780" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30223,12 +30223,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30489,12 +30489,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30603,12 +30603,12 @@
       <c r="H791" t="inlineStr"/>
       <c r="I791" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31177,12 +31177,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31253,12 +31253,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32165,12 +32165,12 @@
       <c r="H832" t="inlineStr"/>
       <c r="I832" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32317,12 +32317,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32393,12 +32393,12 @@
       <c r="H838" t="inlineStr"/>
       <c r="I838" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32431,12 +32431,12 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32507,12 +32507,12 @@
       <c r="H841" t="inlineStr"/>
       <c r="I841" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32853,12 +32853,12 @@
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33081,12 +33081,12 @@
       <c r="H856" t="inlineStr"/>
       <c r="I856" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33119,12 +33119,12 @@
       <c r="H857" t="inlineStr"/>
       <c r="I857" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33195,12 +33195,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33423,12 +33423,12 @@
       <c r="H865" t="inlineStr"/>
       <c r="I865" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33689,12 +33689,12 @@
       <c r="H872" t="inlineStr"/>
       <c r="I872" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33803,12 +33803,12 @@
       <c r="H875" t="inlineStr"/>
       <c r="I875" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33917,12 +33917,12 @@
       <c r="H878" t="inlineStr"/>
       <c r="I878" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34145,12 +34145,12 @@
       <c r="H884" t="inlineStr"/>
       <c r="I884" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34373,12 +34373,12 @@
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34757,12 +34757,12 @@
       <c r="H900" t="inlineStr"/>
       <c r="I900" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34833,12 +34833,12 @@
       <c r="H902" t="inlineStr"/>
       <c r="I902" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34909,12 +34909,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34947,12 +34947,12 @@
       <c r="H905" t="inlineStr"/>
       <c r="I905" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35023,12 +35023,12 @@
       <c r="H907" t="inlineStr"/>
       <c r="I907" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35061,12 +35061,12 @@
       <c r="H908" t="inlineStr"/>
       <c r="I908" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
